--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,57 +436,3042 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>calculated_variant_master_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>product_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>product_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>brand_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>product_category_name_level_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>matas_price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Product 1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
+        <v>642889</v>
+      </c>
+      <c r="B2" t="n">
+        <v>642889</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Moroccanoil Curl Defining Cream 250 ml.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Moroccanoil</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=642889</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Product 2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>643422</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sigvaris 503AD Knæ, kl. 2, u/tå, XL kort Beige</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sigvaris</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tøj, sko og accessories</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=643422</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Product 3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>300</v>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>679674</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RC Acai Antioxidant Body Balm 145 ml (M)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rudolph Care</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=679674</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>716266</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sonett Blegemiddel og pletfjerner, 450 g</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sonett</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bolig og interiør</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>34.95000076293945</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=716266</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>698064</v>
+      </c>
+      <c r="B6" t="n">
+        <v>736530</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NYX PMU SUEDE MATTE LIP LINER BRUNCH ME (G)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NYX PROFESSIONAL MAKEUP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>57.95000076293945</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=736530</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>738392</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BENAMÔR Rose Amélie Hand Cream 30 ml. (W)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BENAMÔR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>74.94999694824219</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=738392</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>697818</v>
+      </c>
+      <c r="B8" t="n">
+        <v>738960</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jimmy Choo floral EDT 60 ml (W)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jimmy Choo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=738960</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>749748</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fitness Pharma Stærk Vitamin D3 80 mcg økonomi 300 stk</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fitness Pharma</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Helsekost</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>134.9499969482422</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=749748</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>751227</v>
+      </c>
+      <c r="B10" t="n">
+        <v>751230</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MAC Liquidlast 24HR Wtf Liner - Coco Bar 2.5ml (W)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=751230</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>764384</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lille Kanin Bad &amp; Baby Olie 100 ml  (P)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Lille Kanin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Børn og forældre</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>79.94999694824219</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=764384</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>766357</v>
+      </c>
+      <c r="B12" t="n">
+        <v>766357</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B&amp;B Bb Curl Reactivator 250Ml</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bumble and bumble</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>274.9500122070312</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=766357</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>768516</v>
+      </c>
+      <c r="B13" t="n">
+        <v>768513</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mason Pearson B2-elfenbens hvid</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mason Pearson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2195</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=768513</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>770777</v>
+      </c>
+      <c r="B14" t="n">
+        <v>770777</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mario Badescu Hyaluronic Eye Cream 14 g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mario Badescu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>189.9499969482422</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=770777</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>777298</v>
+      </c>
+      <c r="B15" t="n">
+        <v>777308</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PDM MELIORA EDP SPRAY 75ml (W)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Parfums De Marly</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=777308</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>781590</v>
+      </c>
+      <c r="B16" t="n">
+        <v>781605</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>JBS FSC tights bamboo 3-pack Multifarvet Str. XXXL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>JBS</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tøj, sko og accessories</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=781605</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>793049</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mellisa Foot &amp; Leg Cream 75 ml (W)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mellisa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personlig pleje</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>169.9499969482422</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=793049</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>796843</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FT Marselisborg Creme M. Pumpe 500 ml (W)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Marselisborg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=796843</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>797451</v>
+      </c>
+      <c r="B19" t="n">
+        <v>797450</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GUM TB Baby 0-2 år ass 4 fv 1 stk (W)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GUM</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Børn og forældre</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>19.95000076293945</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=797450</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>798307</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>JHAG Not A Body Lotion 250 ml (W)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Juliette Has A Gun</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=798307</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>799496</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MAC Studio Fix Every Wear All Over Face Pen Nw35</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>294.9500122070312</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=799496</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>696310</v>
+      </c>
+      <c r="B22" t="n">
+        <v>812888</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kérastase Nutritive Bain Riche Shampoo 250 ml</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KÉRASTASE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>234.9499969482422</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=812888</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>813818</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AMB LL REGENERATION Revitalizing Night Cream 50 ml</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ANNEMARIE BÖRLIND</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=813818</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>690229</v>
+      </c>
+      <c r="B24" t="n">
+        <v>814498</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Maria Nila Coils &amp; Curls Co-Wash 1000 ml</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Maria Nila</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=814498</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>814900</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mugler Alien Goddess Supra Florale EDP 30 ML</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mugler</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>639.9500122070312</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=814900</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>823581</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Neno Elektrisk Brystpumpe Bueno Double Mørkegrøn</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Neno</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Børn og forældre</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=823581</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>825107</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EL DW Stay-In-Place Matte Powder Foundation 1W2 12g</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Estée Lauder</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=825107</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>802068</v>
+      </c>
+      <c r="B28" t="n">
+        <v>827141</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kylie Jenner Wisp Lash Mascara 01 Black (G)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kylie Cosmetics</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>214.9499969482422</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=827141</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>833280</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Goldwell StyleSign Smoothing Serum Spray 100 ml</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GOLDWELL</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>184.9499969482422</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=833280</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>833351</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FT Ohropax Earplugs Classic 12 stk</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ohropax</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Medicare</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>49.95000076293945</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=833351</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>834948</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FT Bio Planete Kokosolie jomfru Ø 950 ml</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Bio Planete</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fødevarer</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>129.9499969482422</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=834948</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>838088</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FT Dovo Solingen Shavette Barberkniv Alu</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Dovo Solingen</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Personlig pleje</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=838088</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>840681</v>
+      </c>
+      <c r="B33" t="n">
+        <v>840682</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Martom IVORY Modelling Matt Paste 75 g</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Martom</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=840682</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>841343</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Day Gweneth RE-S Pencil Black</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DAY ET</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tøj, sko og accessories</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=841343</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>842928</v>
+      </c>
+      <c r="B35" t="n">
+        <v>842929</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Design Letters Duftlys Lilla Large 260 g</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Design Letters</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bolig og interiør</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=842929</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1005806</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1005728</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Arena Drenge Badebukser Korte Sort Hvidt Logo 10-11 år</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Arena</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Børn og forældre</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>249.9499969482422</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1005728</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1011985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The Organic Pharmacy Antioxidant Face Gel 35 ml</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>The Organic Pharmacy</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>519.9500122070312</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1011985</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1016172</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1016703</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Wheat Rib Leggings Maddy Soft Blue 98/3y</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>WHEAT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Børn og forældre</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1016703</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1005817</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1018708</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Arena Women’S Team Bikini-trusse Solid Black-White str. 36</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Arena</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tøj, sko og accessories</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1018708</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1023253</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Elemis Pro-Collagen Toning Mist 150 ml (M)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Elemis</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>549.9500122070312</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1023253</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1023444</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1023444</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GOLDFIELD &amp; BANKS Pacific Rock Moss 50 ml</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GOLDFIELD &amp; BANKS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>894.9500122070312</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1023444</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>1023520</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GA Sí Edp 30 ml +10 ml Gaveæske Xmas25</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Armani</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>689.9500122070312</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=1023520</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>130753</v>
+      </c>
+      <c r="B43" t="n">
+        <v>130753</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Nivea Creme 250 ml (G)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Nivea</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>49.95000076293945</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=130753</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>430595</v>
+      </c>
+      <c r="B44" t="n">
+        <v>430595</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Nivea Q10 Power Day Cream SPF 15 50 ml (G)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Nivea</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>124.9499969482422</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=430595</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>556343</v>
+      </c>
+      <c r="B45" t="n">
+        <v>556343</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MAV Neglelakfjerner U/Acet Rød 100 ml (G)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mavala</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>134.9499969482422</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=556343</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>564821</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Benaday Tabletter 10 mg 21 stk (P)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Benaday</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Medicin</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>79.94999694824219</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=564821</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>591843</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FT Rømer Perlebyg Øko 500 g</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rømer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Fødevarer</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>36.95000076293945</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=591843</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>806978</v>
+      </c>
+      <c r="B48" t="n">
+        <v>624929</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Vitabalans Oy LactoSeven 50 tabl.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Vitabalans Oy</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Helsekost</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>149.9499969482422</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=624929</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>646872</v>
+      </c>
+      <c r="B49" t="n">
+        <v>646872</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TB Creamy Lip Cheek Eye Powder Misty Brown (G)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tromborg</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>219.9499969482422</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=646872</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>648373</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FT NDS Probiotic Panda 1 100 g</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NDS</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Helsekost</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=648373</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>651496</v>
+      </c>
+      <c r="B51" t="n">
+        <v>651501</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LOR Infaillible 32H Fresh Wear Foundation 300 Neutral (G)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>L’Oréal Paris</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>164.9499969482422</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=651501</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>666997</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BI Cream Solaire Anti-Age Spf30 50 ml</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Biotherm</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>209.9499969482422</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=666997</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>679156</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CL Multi-Active Day Cream Spf20 Skin 50 Ml</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Clarins</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>499.9500122070312</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=679156</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>685779</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BI Biosource Eau Micellar 400 ml Promo21</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Biotherm</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>189.9499969482422</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=685779</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>686245</v>
+      </c>
+      <c r="B55" t="n">
+        <v>686253</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Maria Nila Colour Refresh 0.06 Pink Pop 300 ml</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Maria Nila</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>234.9499969482422</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=686253</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>762323</v>
+      </c>
+      <c r="B56" t="n">
+        <v>687680</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A&amp;F First Instinct Men EDT 50 Ml (W)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Abercrombie &amp; Fitch</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=687680</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>689113</v>
+      </c>
+      <c r="B57" t="n">
+        <v>689111</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sisley Fluid Foundation Brush (M)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sisley</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>454.9500122070312</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=689111</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>696118</v>
+      </c>
+      <c r="B58" t="n">
+        <v>696122</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MAC Mineralize Skinfinish/Natural 10g Dark Deepest (W)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=696122</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>696141</v>
+      </c>
+      <c r="B59" t="n">
+        <v>696175</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mac Pro Palette Eye Shadow 1,5g Haux (W)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>119.9499969482422</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=696175</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>702901</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FT Madara Brightening AHA Peel Mask 60 ml</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MÁDARA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=702901</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>703900</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Omron Digital Termometer (G)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Omron</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Medicare</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>129.9499969482422</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=703900</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>710913</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>OGX Argan Oil of Morocco Conditioner 88,7 ml</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>OGX</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>34.95000076293945</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=710913</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>712383</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SHI Future Solution Total Regene Cream Night 50 Ml (M)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Shiseido</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3449</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=712383</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>720070</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FT Biogan Boghvedegryn 750g Øko</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Biogan</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Fødevarer</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=720070</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>720099</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FT Biogan Spelt Biostogne Kiks 175g Øko</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Biogan</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Fødevarer</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>24.95000076293945</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=720099</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>721055</v>
+      </c>
+      <c r="B66" t="n">
+        <v>721055</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FT Ellas Kitchen Babymos Svesker 4 mdr Øko 70 g</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ella’s Kitchen</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Børn og forældre</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>14.94999980926514</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=721055</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>724048</v>
+      </c>
+      <c r="B67" t="n">
+        <v>724050</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sisley Phyto-Khol Star Wp 5 - Sparkling Blue (G)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sisley</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>399.9500122070312</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=724050</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>732650</v>
+      </c>
+      <c r="B68" t="n">
+        <v>734462</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Stuhr Økologisk Shampoo 200 ml (M)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Stuhr</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>94.94999694824219</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=734462</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>735860</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FT Kokosfløde 400 ml</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AcuPharma</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Fødevarer</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>54.95000076293945</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=735860</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>738956</v>
+      </c>
+      <c r="B70" t="n">
+        <v>738955</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Dsquared2 Wood Women EDT 100 ml (W)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Dsquared2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>699.9500122070312</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=738955</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>739929</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FT Macadamianødder Rå Øko 400 gr</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Biogan</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Fødevarer</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>229.9499969482422</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=739929</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>743784</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ES DayWear Sheer Tint Release SPF15 15 ml (G)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Estée Lauder</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=743784</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>688689</v>
+      </c>
+      <c r="B73" t="n">
+        <v>744479</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Redken Frizz Dismiss Conditioner 250 ml</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Redken</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>219.9499969482422</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=744479</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>782743</v>
+      </c>
+      <c r="B74" t="n">
+        <v>746746</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Milk Shake Argan shampoo 1L</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Milk Shake</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=746746</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>748746</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>HR Pdy Cellglow Concentrate 30 ml (G)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Helena Rubinstein</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1549</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=748746</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>750272</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>KI Buttermask for Lips 8 g (M)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Kiehl’s</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>229.9499969482422</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=750272</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>750720</v>
+      </c>
+      <c r="B77" t="n">
+        <v>750719</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ecoegg 144 vask uden duft allergisikker</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ecoegg</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Bolig og interiør</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>89.94999694824219</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=750719</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>754906</v>
+      </c>
+      <c r="B78" t="n">
+        <v>754909</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Essie expressie 30 trend and snap (U)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>essie</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>99.94999694824219</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=754909</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>755842</v>
+      </c>
+      <c r="B79" t="n">
+        <v>755845</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SisleyLe Phyto Gloss 4 - twilight (G)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sisley</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>399.9500122070312</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=755845</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>759782</v>
+      </c>
+      <c r="B80" t="n">
+        <v>759782</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sensai Styling Eyebrow Pencil 01 Dark Brown</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sensai</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=759782</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>711883</v>
+      </c>
+      <c r="B81" t="n">
+        <v>760475</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tena Silhouette Bind Mini 18 stk sort (U)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tena</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Personlig pleje</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>49.95000076293945</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=760475</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>765441</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Hevea Loop cup Mens Cup str 1+2 naturgummi 2 stk kombi (W)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Hevea</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Personlig pleje</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=765441</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>739406</v>
+      </c>
+      <c r="B83" t="n">
+        <v>767846</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Montblanc Explorer Ultra Blue 100 ML (W)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Montblanc</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>739.9500122070312</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=767846</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>768486</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Less is More Earl-Grey Blow-Dry Spray Travel Size 50 ml</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Less Is More</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>114.9499969482422</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=768486</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>768605</v>
+      </c>
+      <c r="B85" t="n">
+        <v>768605</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Clean Reserve Radiant Nectar 50 ml (U)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=768605</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>769184</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>King C. Gillette trådløst skægtrimmersæt  (U)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Gillette</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Personlig pleje</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=769184</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>769625</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CL Toning Lotion Hydrating 200 ml</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Clarins</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>239.9499969482422</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=769625</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>773253</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ACO Renewing Face Oil 30ml (U)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ACO</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>209.9499969482422</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=773253</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>774160</v>
+      </c>
+      <c r="B89" t="n">
+        <v>774161</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LP SE Pro Longer Conditioner 200Ml</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>L’Oréal Professionnel</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hårpleje og styling</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=774161</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>779315</v>
+      </c>
+      <c r="B90" t="n">
+        <v>779316</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Stik A´ Afterstik Spray m/Mepyramin 2% 30 ml (G)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Stik A’</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Medicare</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>54.95000076293945</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=779316</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>781414</v>
+      </c>
+      <c r="B91" t="n">
+        <v>781414</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MAC Strobe Skin Tint Light 30 ml (G)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=781414</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>781970</v>
+      </c>
+      <c r="B92" t="n">
+        <v>781970</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CL Ever Bronzer 02 Medium (G)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Clarins</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=781970</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>782428</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>RC A Hint of Summer - The Lotion 150 ml (G)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Rudolph Care</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>374.9500122070312</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=782428</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>783625</v>
+      </c>
+      <c r="B94" t="n">
+        <v>783625</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Vita Liberata Tanning Mousse Medium 200 ml (M) FLP</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Vita Liberata</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>214.9499969482422</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=783625</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>783642</v>
+      </c>
+      <c r="B95" t="n">
+        <v>783643</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Vita Liberata Beauty Blur Dark 30 ml</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Vita Liberata</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=783643</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>736315</v>
+      </c>
+      <c r="B96" t="n">
+        <v>784514</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>FT Dr. Organic Manuka Honey Deodorant Roll-On 50 ml</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Dr. Organic</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>79.94999694824219</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=784514</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>786446</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LEP 100% Pure Shea Butter 10ml</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>L’Occitane En Provence</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>75</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=786446</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>787028</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Nailster Gel Polish 21 Winter Kiss (M)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Nailster</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>129.9499969482422</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=787028</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>787289</v>
+      </c>
+      <c r="B99" t="n">
+        <v>787289</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Nailster Fnugfri Pads 500 stk</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Nailster</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>39.95000076293945</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=787289</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>787604</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ame pure Body Basic Stretch Marks Kit</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>âme pure</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Hudpleje</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>894.9500122070312</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=787604</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>787653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>787653</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Billie Eilish Eilish 50 ml (G)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Billie Eilish</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dufte</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>554.9500122070312</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://www.matas.dk/soeg?search-query=787653</t>
+        </is>
       </c>
     </row>
   </sheetData>
